--- a/DBA(Digital barrier analysis)/Additional features/Test cases DBA Additional features.xlsx
+++ b/DBA(Digital barrier analysis)/Additional features/Test cases DBA Additional features.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Global settings page" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Export Existing Records" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="150">
   <si>
     <t>S.N</t>
   </si>
@@ -184,12 +184,6 @@
     <t>Click on the edit button of work type.</t>
   </si>
   <si>
-    <t>A popup module should appear with Add Work type form and list.</t>
-  </si>
-  <si>
-    <t>A popup module should appear with Add Work type form and list of the selected language</t>
-  </si>
-  <si>
     <t>Set the name of the Work Type and click on add button</t>
   </si>
   <si>
@@ -245,6 +239,241 @@
   </si>
   <si>
     <t>The selected work type should be deleted from the list.</t>
+  </si>
+  <si>
+    <t>DBA_GlobalSettings_WorkOperationCreate</t>
+  </si>
+  <si>
+    <t>Validate that the work operation can be created.</t>
+  </si>
+  <si>
+    <t>The org admin should be able to add new work operation in the system and the added work operation should appear in the deafult list of every newly created project for the selected language.</t>
+  </si>
+  <si>
+    <t>Click on the edit button of work operation.</t>
+  </si>
+  <si>
+    <t>A popup module should appear with Add Work type form and list of currently present work type.</t>
+  </si>
+  <si>
+    <t>A popup module should appear with Add Work type form and list of all the currently present work type.</t>
+  </si>
+  <si>
+    <t>A popup module should appear with Add Work operation form.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a work type </t>
+  </si>
+  <si>
+    <t>All the currently present work operation under the selected work type should be listed in the table.</t>
+  </si>
+  <si>
+    <t>Set the name of the Work operation and click on add button</t>
+  </si>
+  <si>
+    <t>The Created Work operation should be added under the selected  Work Type of the selected language with a success message. The latest created work operation  should appear on the top of the list and rest of the work operations should be arranged alphabetically.</t>
+  </si>
+  <si>
+    <t>DBA_GlobalSettings_WorkOperationEdit</t>
+  </si>
+  <si>
+    <t>Select the Language in which you want to add a work operation(Suppose norwegian)</t>
+  </si>
+  <si>
+    <t>Validate that the work operation can be edited.</t>
+  </si>
+  <si>
+    <t>The org admin should be able to edit work operation in the system and the edited work operation should appear in the deafult list of every newly created project for the selected language.</t>
+  </si>
+  <si>
+    <t>Click on the edit button of any one of the work operation in the list</t>
+  </si>
+  <si>
+    <t>A popup module should appear where the name of selected work operation can be edited.</t>
+  </si>
+  <si>
+    <t>Change the name of the work operation and click on update button.</t>
+  </si>
+  <si>
+    <t>The edited work operation should appear in the work operation list.</t>
+  </si>
+  <si>
+    <t>DBA_GlobalSettings_WorkOperationDelete</t>
+  </si>
+  <si>
+    <t>Validate that the work operation can be deleted</t>
+  </si>
+  <si>
+    <t>Select the Language in which you want to delete a work operation(Suppose norwegian)</t>
+  </si>
+  <si>
+    <t>Click on the delete button of any one of the work operation in the list</t>
+  </si>
+  <si>
+    <t>A popup module should appear asking for the confirmation of the deletion.</t>
+  </si>
+  <si>
+    <t>Click on the OK button</t>
+  </si>
+  <si>
+    <t>The selected work operation should be deleted from the list.</t>
+  </si>
+  <si>
+    <t>DBA_GlobalSettings_PotentialIncidentCreate</t>
+  </si>
+  <si>
+    <t>Validate that the potential incident can be created.</t>
+  </si>
+  <si>
+    <t>The org admin should be able to add new potential incident in the system and the added potential incident should appear in the deafult list of every newly created project for the selected language.</t>
+  </si>
+  <si>
+    <t>Click on the edit button of Potential Incident</t>
+  </si>
+  <si>
+    <t>A popup module should appear with Add potential incident form.</t>
+  </si>
+  <si>
+    <t>Select a work type and work operation</t>
+  </si>
+  <si>
+    <t>All the currently present potential incident under the selected work type should be listed in the table.</t>
+  </si>
+  <si>
+    <t>Set the name of the potential incident and click on add button</t>
+  </si>
+  <si>
+    <t>The Created potential incident should be added under the selected  Work Type and Work Operation of the selected language with a success message. The latest created potential incident should appear on the top of the list and rest of the potential incident should be arranged alphabetically.</t>
+  </si>
+  <si>
+    <t>DBA_GlobalSettings_PotentialIncidentEdit</t>
+  </si>
+  <si>
+    <t>Validate that the potential incident can be edited.</t>
+  </si>
+  <si>
+    <t>Select the Language in which you want to add a potential incident(Suppose norwegian)</t>
+  </si>
+  <si>
+    <t>Click on the edit button of potential incident</t>
+  </si>
+  <si>
+    <t>All the currently present potential incident under the selected work type and work operation should be listed in the table.</t>
+  </si>
+  <si>
+    <t>Click on the edit button of any one of the potential incident in the list</t>
+  </si>
+  <si>
+    <t>A popup module should appear where the name of selected potential incident can be edited.</t>
+  </si>
+  <si>
+    <t>Change the name of the potential incident and click on update button.</t>
+  </si>
+  <si>
+    <t>The edited potential incident should appear in the potential incident list.</t>
+  </si>
+  <si>
+    <t>DBA_GlobalSettings_PotentialIncident Delete</t>
+  </si>
+  <si>
+    <t>Validate that the potential incident can be deleted</t>
+  </si>
+  <si>
+    <t>The org admin should be able to edit potential incident in the system and the edited potential incident should appear in the deafult list of every newly created project for the selected language.</t>
+  </si>
+  <si>
+    <t>The org admin should be able to delete work operation in the system and the deleted work operation should not appear in the deafult list of every newly created project for the selected language.</t>
+  </si>
+  <si>
+    <t>The org admin should be able to delete the potential incident in the system and the deleted potential incident should not appear in the deafult list of every newly created project for the selected language.</t>
+  </si>
+  <si>
+    <t>Click on the delete button of any one of the potential incident in the list</t>
+  </si>
+  <si>
+    <t>A popup module should appear asking for the confirmation of the deletion</t>
+  </si>
+  <si>
+    <t>The selected potential incident should be deleted from the list.</t>
+  </si>
+  <si>
+    <t>DBA_GlobalSettings_ConsequenceTypeCreate</t>
+  </si>
+  <si>
+    <t>Validate that the consequence type can be created</t>
+  </si>
+  <si>
+    <t>The org admin should be able to create the conequence type in the system and the added consequence type should appear in the deafult list of every newly created project for the selected language.</t>
+  </si>
+  <si>
+    <t>Select the Language in which you want to delete a potential incident(Suppose norwegian)</t>
+  </si>
+  <si>
+    <t>Select the Language in which you want to add a consequence type(Suppose norwegian)</t>
+  </si>
+  <si>
+    <t>Click on the edit button of consequence type.</t>
+  </si>
+  <si>
+    <t>A popup module should appear with Add consequence type form.</t>
+  </si>
+  <si>
+    <t>Set the name of the consequence type and click on add button</t>
+  </si>
+  <si>
+    <t>The Created consequence type should be added with a success message. The latest created consequence type should appear on the top of the list and rest of the consequence type should be arranged alphabetically.</t>
+  </si>
+  <si>
+    <t>DBA_GlobalSettings_ConsequenceTypeEdit</t>
+  </si>
+  <si>
+    <t>Validate that the Consequence type can be edited.</t>
+  </si>
+  <si>
+    <t>The org admin should be able to edit the conequence type in the system and the edited consequence type should appear in the deafult list of every newly created project for the selected language.</t>
+  </si>
+  <si>
+    <t>A popup module should appear with list of all the consequence type</t>
+  </si>
+  <si>
+    <t>Click on the edit button of any one of the consequence type in the list</t>
+  </si>
+  <si>
+    <t>A popup module should appear where the name of selected consequence type can be edited.</t>
+  </si>
+  <si>
+    <t>Change the name of the consequence type and click on update button.</t>
+  </si>
+  <si>
+    <t>The edited consequence type should appear in the consequence type list.</t>
+  </si>
+  <si>
+    <t>DBA_GlobalSettings_ConsequenceTypeDelete</t>
+  </si>
+  <si>
+    <t>Validate that the consequence type can be deleted</t>
+  </si>
+  <si>
+    <t>The org admin should be able to delete the conequence type in the system and the deleted consequence type should appear in the deafult list of every newly created project for the selected language.</t>
+  </si>
+  <si>
+    <t>Click on the delete button of any one of the consequence type in the list</t>
+  </si>
+  <si>
+    <t>The selected consequence type should be deleted from the list.</t>
+  </si>
+  <si>
+    <t>DBA_GlobalSettings_</t>
+  </si>
+  <si>
+    <t>DBA_ExportRecords_UI</t>
+  </si>
+  <si>
+    <t>Validate that the positioning of the "Export Existing Records" button is as per specified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preconditions:
+1. </t>
   </si>
 </sst>
 </file>
@@ -298,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -317,6 +546,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +1124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="E24" s="4">
         <v>2</v>
       </c>
@@ -900,7 +1132,7 @@
         <v>52</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -908,10 +1140,10 @@
         <v>3</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -919,13 +1151,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -934,7 +1166,7 @@
         <v>25</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -953,10 +1185,10 @@
         <v>2</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -964,10 +1196,10 @@
         <v>3</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -975,10 +1207,10 @@
         <v>4</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -986,10 +1218,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>10</v>
@@ -1001,7 +1233,7 @@
         <v>25</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1020,10 +1252,10 @@
         <v>2</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1031,10 +1263,10 @@
         <v>3</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1042,27 +1274,1462 @@
         <v>4</v>
       </c>
       <c r="F37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>73</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E41" s="4">
+        <v>2</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E42" s="6">
+        <v>3</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E43" s="4">
+        <v>4</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>7</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E47" s="4">
+        <v>2</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E48" s="6">
+        <v>3</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E49" s="6">
+        <v>4</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E50" s="6">
+        <v>5</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>8</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E54" s="4">
+        <v>2</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E55" s="6">
+        <v>3</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E56" s="6">
+        <v>4</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E57" s="4">
+        <v>5</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>9</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E61" s="4">
+        <v>2</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E62" s="6">
+        <v>3</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="E63" s="4">
+        <v>4</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>10</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E67" s="4">
+        <v>2</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E68" s="6">
+        <v>3</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E69" s="6">
+        <v>4</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E70" s="6">
+        <v>5</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>11</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E74" s="4">
+        <v>2</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E75" s="6">
+        <v>3</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E76" s="6">
+        <v>4</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E77" s="6">
+        <v>5</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>12</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E80" s="4">
+        <v>1</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E81" s="4">
+        <v>2</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="E82" s="4">
+        <v>4</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>13</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E85" s="4">
+        <v>1</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E86" s="4">
+        <v>2</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E87" s="4">
+        <v>3</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E88" s="4">
+        <v>4</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>14</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E92" s="4">
+        <v>2</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E93" s="4">
+        <v>3</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E94" s="4">
+        <v>4</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>15</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="19" style="7" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="7"/>
+    <col min="6" max="6" width="24.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DBA(Digital barrier analysis)/Additional features/Test cases DBA Additional features.xlsx
+++ b/DBA(Digital barrier analysis)/Additional features/Test cases DBA Additional features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Global settings page" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="198">
   <si>
     <t>S.N</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Validate that the UI of the global setting page is as per the design</t>
-  </si>
-  <si>
-    <t>The Ui of the global settings page should be as specified in the design.</t>
   </si>
   <si>
     <t>Preconditions:
@@ -463,9 +460,6 @@
     <t>The selected consequence type should be deleted from the list.</t>
   </si>
   <si>
-    <t>DBA_GlobalSettings_</t>
-  </si>
-  <si>
     <t>DBA_ExportRecords_UI</t>
   </si>
   <si>
@@ -474,6 +468,156 @@
   <si>
     <t xml:space="preserve">Preconditions:
 1. </t>
+  </si>
+  <si>
+    <t>The UI of the global settings page should be as specified in the design.</t>
+  </si>
+  <si>
+    <t>DBA_GlobalSettings_EditRiskMatrix</t>
+  </si>
+  <si>
+    <t>Vaidate that the risk matrix can be edited</t>
+  </si>
+  <si>
+    <t>Select the language in which you want to edit the risk matrix</t>
+  </si>
+  <si>
+    <t>The user should be able to edit the risk matrix in the selected language.</t>
+  </si>
+  <si>
+    <t>The loaded risk matrix should be in the selected language. The Probability and Consequence type of the risk matrix should be in the selected language.</t>
+  </si>
+  <si>
+    <t>Click on the edit button of the risk matrix table.</t>
+  </si>
+  <si>
+    <t>The "Save" button should appear and the name of the consequence and the probability should be editable. The color in each box of the table should also be editable.</t>
+  </si>
+  <si>
+    <t>Change the name of the consequences and probability.</t>
+  </si>
+  <si>
+    <t>Change the color of some cell.</t>
+  </si>
+  <si>
+    <t>The probability and consequence field should be editable</t>
+  </si>
+  <si>
+    <t>The color of the cells should be editable.</t>
+  </si>
+  <si>
+    <t>Click on "Save" button.</t>
+  </si>
+  <si>
+    <t>The Changes made should be saved and should be displayed in all the new projects created of the selected language.</t>
+  </si>
+  <si>
+    <t>DBA_GlobalSettings_AddDuplicateWorkType</t>
+  </si>
+  <si>
+    <t>Validate that work type with same name cannot be created.</t>
+  </si>
+  <si>
+    <t>The name of the Work Type should be unique.</t>
+  </si>
+  <si>
+    <t>Select the Language in which you want to add a Work Type(Suppose norwegian)</t>
+  </si>
+  <si>
+    <t>Create the work type with name "Test"(can be any name of your choice)</t>
+  </si>
+  <si>
+    <t>The Created Work Type should be added in the Work Type list with a success message.</t>
+  </si>
+  <si>
+    <t>Again create a work type with name "test".</t>
+  </si>
+  <si>
+    <t>The work type should not be created and the message "Duplicate Work Type" should be displayed.</t>
+  </si>
+  <si>
+    <t>DBA_GlobalSettings_AddDuplicateWorkOperation</t>
+  </si>
+  <si>
+    <t>The name of the Work operation under the selected work type should be unique.</t>
+  </si>
+  <si>
+    <t>Create the work operation with name "Test"(can be any name of your choice) under the selected WT</t>
+  </si>
+  <si>
+    <t>The Created Work Operation should be added in the Work Operation list with a success message under the selected wt.</t>
+  </si>
+  <si>
+    <t>Again create a work operation with name "test" under the same work type.</t>
+  </si>
+  <si>
+    <t>The work operation should not be created and the message "Duplicate Work operation should be displayed.</t>
+  </si>
+  <si>
+    <t>DBA_GlobalSettings_AddDuplicatePotentialIncident</t>
+  </si>
+  <si>
+    <t>Vlaidate that work operation with same name cannot be created under the same work type.</t>
+  </si>
+  <si>
+    <t>Validate that potential incident with the same name cannot be created under the same work type and work operation</t>
+  </si>
+  <si>
+    <t>The name of the potential incident under the selected work type and work operation should be unique.</t>
+  </si>
+  <si>
+    <t>Select the Language in which you want to add a Work Operation(Suppose norwegian)</t>
+  </si>
+  <si>
+    <t>Select the Language in which you want to add a Potential Incident(Suppose norwegian)</t>
+  </si>
+  <si>
+    <t>Click on the edit button of Potential Incident.</t>
+  </si>
+  <si>
+    <t>All the currently present work operation under the selected work type should be listed under work operation drop down.</t>
+  </si>
+  <si>
+    <t>Select a work operation</t>
+  </si>
+  <si>
+    <t>Create the potential incident  with name "Test"(can be any name of your choice) under the selected WT and WO</t>
+  </si>
+  <si>
+    <t>The Created potential incident should be added in the potential incident list with a success message under the selected wt and wo.</t>
+  </si>
+  <si>
+    <t>Again create a potential incident with name "test" under the same work type and work operation</t>
+  </si>
+  <si>
+    <t>The potential incident should not be created and the message "Duplicate potential incident should be displayed.</t>
+  </si>
+  <si>
+    <t>DBA_Settings_AddDuplicateConsequenceType</t>
+  </si>
+  <si>
+    <t>Verify that Consequence Type with the same name cannot be added</t>
+  </si>
+  <si>
+    <t>Click on the Edit button of Consequence Type</t>
+  </si>
+  <si>
+    <t>A popup module should appear with Add Consequence Type form and list.</t>
+  </si>
+  <si>
+    <t>Create the Consequence Type with name "Test"(can be any name of your choice)</t>
+  </si>
+  <si>
+    <t>The Created Consequence Type should be added in the Consequence Type list with a success message.</t>
+  </si>
+  <si>
+    <t>Again create a Consequence Type with name "test".</t>
+  </si>
+  <si>
+    <t>The Consequence Type should not be created and the message "Duplicate Work Type" should be displayed.</t>
+  </si>
+  <si>
+    <t>The name of the conequence type  should be unique.</t>
   </si>
 </sst>
 </file>
@@ -830,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -973,10 +1117,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -984,10 +1128,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
@@ -996,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1007,10 +1151,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1018,10 +1162,10 @@
         <v>2</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1029,10 +1173,10 @@
         <v>3</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1040,10 +1184,10 @@
         <v>4</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1051,10 +1195,10 @@
         <v>5</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1062,10 +1206,10 @@
         <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1073,10 +1217,10 @@
         <v>7</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1084,10 +1228,10 @@
         <v>8</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1095,10 +1239,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>10</v>
@@ -1107,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1118,10 +1262,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1129,10 +1273,10 @@
         <v>2</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1140,10 +1284,10 @@
         <v>3</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1151,22 +1295,22 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1174,10 +1318,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1185,10 +1329,10 @@
         <v>2</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1196,10 +1340,10 @@
         <v>3</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1207,10 +1351,10 @@
         <v>4</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1218,10 +1362,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>10</v>
@@ -1230,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1241,10 +1385,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1252,10 +1396,10 @@
         <v>2</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1263,10 +1407,10 @@
         <v>3</v>
       </c>
       <c r="F36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1274,10 +1418,10 @@
         <v>4</v>
       </c>
       <c r="F37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1285,10 +1429,10 @@
         <v>6</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>10</v>
@@ -1297,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1308,10 +1452,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1319,10 +1463,10 @@
         <v>2</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1330,10 +1474,10 @@
         <v>3</v>
       </c>
       <c r="F42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1341,10 +1485,10 @@
         <v>4</v>
       </c>
       <c r="F43" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1352,10 +1496,10 @@
         <v>7</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>10</v>
@@ -1364,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1375,10 +1519,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1386,10 +1530,10 @@
         <v>2</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1397,10 +1541,10 @@
         <v>3</v>
       </c>
       <c r="F48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1408,10 +1552,10 @@
         <v>4</v>
       </c>
       <c r="F49" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1419,10 +1563,10 @@
         <v>5</v>
       </c>
       <c r="F50" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1430,10 +1574,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>10</v>
@@ -1442,10 +1586,10 @@
         <v>0</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1453,10 +1597,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1464,10 +1608,10 @@
         <v>2</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1475,10 +1619,10 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1486,10 +1630,10 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1497,10 +1641,10 @@
         <v>5</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1508,10 +1652,10 @@
         <v>9</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>10</v>
@@ -1520,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1531,10 +1675,10 @@
         <v>1</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1542,10 +1686,10 @@
         <v>2</v>
       </c>
       <c r="F61" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1553,10 +1697,10 @@
         <v>3</v>
       </c>
       <c r="F62" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -1564,10 +1708,10 @@
         <v>4</v>
       </c>
       <c r="F63" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1575,10 +1719,10 @@
         <v>10</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>10</v>
@@ -1587,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1598,10 +1742,10 @@
         <v>1</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1609,10 +1753,10 @@
         <v>2</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1620,10 +1764,10 @@
         <v>3</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1631,10 +1775,10 @@
         <v>4</v>
       </c>
       <c r="F69" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1642,10 +1786,10 @@
         <v>5</v>
       </c>
       <c r="F70" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1653,10 +1797,10 @@
         <v>11</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>10</v>
@@ -1665,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1676,10 +1820,10 @@
         <v>1</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1687,10 +1831,10 @@
         <v>2</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1698,10 +1842,10 @@
         <v>3</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1709,10 +1853,10 @@
         <v>4</v>
       </c>
       <c r="F76" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1720,10 +1864,10 @@
         <v>5</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1731,10 +1875,10 @@
         <v>12</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>10</v>
@@ -1743,10 +1887,10 @@
         <v>0</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1754,10 +1898,10 @@
         <v>1</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1765,10 +1909,10 @@
         <v>2</v>
       </c>
       <c r="F81" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1776,10 +1920,10 @@
         <v>4</v>
       </c>
       <c r="F82" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1787,10 +1931,10 @@
         <v>13</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>10</v>
@@ -1799,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1810,10 +1954,10 @@
         <v>1</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1821,10 +1965,10 @@
         <v>2</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1832,10 +1976,10 @@
         <v>3</v>
       </c>
       <c r="F87" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1843,10 +1987,10 @@
         <v>4</v>
       </c>
       <c r="F88" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G88" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1854,10 +1998,10 @@
         <v>14</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>10</v>
@@ -1866,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1877,10 +2021,10 @@
         <v>1</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1888,10 +2032,10 @@
         <v>2</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1899,10 +2043,10 @@
         <v>3</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1910,18 +2054,384 @@
         <v>4</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>15</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E97" s="4">
+        <v>1</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E98" s="4">
+        <v>2</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E99" s="4">
+        <v>3</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E100" s="4">
+        <v>4</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E101" s="4">
+        <v>5</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>16</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="4">
+        <v>0</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E104" s="4">
+        <v>1</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E105" s="4">
+        <v>2</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E106" s="4">
+        <v>3</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E107" s="4">
+        <v>4</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>17</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E110" s="4">
+        <v>1</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E111" s="4">
+        <v>2</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E112" s="4">
+        <v>3</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E113" s="4">
+        <v>4</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E114" s="4">
+        <v>5</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>18</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="4">
+        <v>0</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E117" s="4">
+        <v>1</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E118" s="4">
+        <v>2</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E119" s="4">
+        <v>3</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E120" s="4">
+        <v>4</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E121" s="4">
+        <v>4</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E122" s="4">
+        <v>5</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>19</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="6"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="6">
+        <v>1</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="6"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="6">
+        <v>2</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="6"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="6">
+        <v>3</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1934,7 +2444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1985,10 +2495,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -1997,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
